--- a/searches/sec3_results/outline_3.xlsx
+++ b/searches/sec3_results/outline_3.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N104"/>
+  <dimension ref="A1:L155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,74 +434,64 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>SECTION</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>SUBSECTION</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>POINT</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>QUERY</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>DOI</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>PAPER_TITLE</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>RELEVANCE_SCORE</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>FULL_TEXT</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>BIBTEX</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>PDF_LOCATION</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>JOURNAL</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>CITATION_COUNT</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>RANK</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>ADOI_URL</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>document_title</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>section_title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>point_text</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>query</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>doi</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>full_text</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bibtex</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>pdf_location</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>journal</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>citation_count</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>relevance_score</t>
         </is>
       </c>
     </row>
@@ -506,12 +508,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>â€¢ Considerations: volume, frequency, format, and source of the data</t>
+          <t>â€¢ Types of data most applicable to irrigation management and their typical sources</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>TITLE-ABS(({smart irrigation} OR {intelligent irrigation}) AND (data PRE/3 source) AND ({data reliability} OR {data quality} OR {data uncertainty}))</t>
+          <t>TITLE-ABS-KEY(({irrigation management} OR {precision irrigation}) AND (data W/5 (type OR source)) AND ({soil moisture} OR {canopy temperature} OR weather OR {crop data}))</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -520,16 +522,16 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -544,12 +546,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>â€¢ Considerations: volume, frequency, format, and source of the data</t>
+          <t>â€¢ Types of data most applicable to irrigation management and their typical sources</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY((irrigation AND data) AND (volume OR frequency OR format OR source))</t>
+          <t>TITLE-ABS-KEY((irrigation PRE/3 management) AND (data PRE/3 (type OR source)) AND sensor AND ({machine learning} OR {decision support}))</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -558,16 +560,16 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -582,12 +584,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>â€¢ Considerations: volume, frequency, format, and source of the data</t>
+          <t>â€¢ Types of data most applicable to irrigation management and their typical sources</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY((irrigation PRE/3 (management OR control)) AND (data PRE/3 (format OR structure)) AND ({data integration} OR {data compatibility} OR {data standard}))</t>
+          <t>TITLE-ABS-KEY((irrigation PRE/3 (management OR scheduling)) AND ({data source} OR {data type}) AND ({remote sensing} OR iot OR {internet of things}))</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -596,16 +598,16 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -620,33 +622,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>â€¢ Considerations: volume, frequency, format, and source of the data</t>
+          <t>â€¢ Types of data most applicable to irrigation management and their typical sources</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY((irrigation PRE/3 (management OR scheduling OR control)) AND (data PRE/3 (quality OR characteristic OR property)))</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Enhancing Mediterranean Agriculture: Towards a Sensor Based Decision Support Tool for Efficient Irrigation Management in Smallholder Orchards</t>
-        </is>
-      </c>
+          <t>TITLE-ABS(({irrigation management} OR {smart irrigation}) AND (data W/5 (volume OR frequency OR format)) AND ({soil data} OR {plant data} OR {environmental data}))</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>2023 IEEE International Workshop on Metrology for Agriculture and Forestry, MetroAgriFor 2023 - Proceedings</t>
-        </is>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -662,12 +660,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>â€¢ Considerations: volume, frequency, format, and source of the data</t>
+          <t>â€¢ Types of data most applicable to irrigation management and their typical sources</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY((irrigation PRE/3 (management OR scheduling OR control)) AND (data PRE/3 (quality OR characteristic OR property)))</t>
+          <t>TITLE-ABS-KEY((irrigation PRE/3 management) AND (data PRE/3 consideration) AND ({big data} OR {data integration} OR {data processing}))</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -676,16 +674,16 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -700,12 +698,28 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>â€¢ Considerations: volume, frequency, format, and source of the data</t>
+          <t>â€¢ Types of data most applicable to irrigation management and their typical sources</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY((irrigation PRE/3 (management OR scheduling OR control)) AND (data PRE/3 (quality OR characteristic OR property)))</t>
+          <t>TITLE-ABS-KEY((irrigation AND (data OR information)) AND ({types} OR {sources} OR {examples}))</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -722,12 +736,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>â€¢ Considerations: volume, frequency, format, and source of the data</t>
+          <t>â€¢ Types of data most applicable to irrigation management and their typical sources</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY((irrigation PRE/3 management) AND (data PRE/3 (volume OR size OR amount)) AND ({big data} OR {data storage} OR {data processing}))</t>
+          <t>(irrigation PRE/3 (management OR scheduling)) AND (data PRE/3 (type OR source OR characteristic))</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -736,16 +750,16 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -760,12 +774,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>â€¢ Considerations: volume, frequency, format, and source of the data</t>
+          <t>â€¢ Different data types (e.g., soil moisture, canopy temperature, weather) and their collection and use</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({irrigation scheduling} OR {precision irrigation}) AND (data PRE/3 (frequency OR interval OR resolution)) AND ({temporal resolution} OR {sampling rate}))</t>
+          <t>TITLE-ABS-KEY((irrigation PRE/3 (management OR scheduling)) AND ({soil moisture} OR {canopy temperature} OR weather) AND (sensor OR monitoring))</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -774,16 +788,16 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -798,12 +812,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>â€¢ Considerations: volume, frequency, format, and source of the data</t>
+          <t>â€¢ Different data types (e.g., soil moisture, canopy temperature, weather) and their collection and use</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({real-time irrigation} OR {dynamic irrigation}) AND ({data consideration} OR {data challenge}) AND ({scalability} OR {data fusion} OR {data heterogeneity}))</t>
+          <t>TITLE-ABS-KEY((irrigation PRE/3 management) AND ({data collection} OR sensing) AND ({soil data} OR {plant data} OR {climate data}) AND {decision making})</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -812,16 +826,16 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -841,7 +855,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>(irrigation PRE/3 (management OR scheduling OR control)) AND (data AND (type OR source OR measurement))</t>
+          <t>TITLE-ABS-KEY(({precision irrigation} OR {smart irrigation}) AND ({data type} OR {data collection}) AND ({evapotranspiration} OR {crop water stress}))</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -850,16 +864,16 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -888,16 +902,16 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -917,7 +931,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY((irrigation AND (data OR information OR input)) AND (collection OR gathering OR acquisition))</t>
+          <t>TITLE-ABS-KEY(({variable rate irrigation} OR {site-specific irrigation}) AND (data PRE/3 (type OR collection OR utilization)) AND ({field variability} OR {water productivity}))</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -926,16 +940,16 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -955,7 +969,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY((irrigation PRE/3 (management OR scheduling)) AND ({soil moisture} OR {canopy temperature} OR weather) AND (sensor OR monitoring))</t>
+          <t>TITLE-ABS-KEY((irrigation AND (data OR information OR input)) AND (collection OR gathering OR acquisition))</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -964,16 +978,16 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -993,7 +1007,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY((irrigation PRE/3 management) AND ({data collection} OR sensing) AND ({soil data} OR {plant data} OR {climate data}) AND {decision making})</t>
+          <t>(irrigation PRE/3 (management OR scheduling OR control)) AND (data AND (type OR source OR measurement))</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -1002,16 +1016,16 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1026,12 +1040,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>â€¢ Different data types (e.g., soil moisture, canopy temperature, weather) and their collection and use</t>
+          <t>â€¢ Considerations: volume, frequency, format, and source of the data</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({precision irrigation} OR {smart irrigation}) AND ({data type} OR {data collection}) AND ({evapotranspiration} OR {crop water stress}))</t>
+          <t>TITLE-ABS-KEY((irrigation PRE/3 management) AND (data PRE/3 (volume OR size OR amount)) AND ({big data} OR {data storage} OR {data processing}))</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -1040,16 +1054,16 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1064,12 +1078,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>â€¢ Different data types (e.g., soil moisture, canopy temperature, weather) and their collection and use</t>
+          <t>â€¢ Considerations: volume, frequency, format, and source of the data</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({variable rate irrigation} OR {site-specific irrigation}) AND (data PRE/3 (type OR collection OR utilization)) AND ({field variability} OR {water productivity}))</t>
+          <t>TITLE-ABS-KEY(({irrigation scheduling} OR {precision irrigation}) AND (data PRE/3 (frequency OR interval OR resolution)) AND ({temporal resolution} OR {sampling rate}))</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -1078,16 +1092,16 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1102,12 +1116,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>â€¢ Types of data most applicable to irrigation management and their typical sources</t>
+          <t>â€¢ Considerations: volume, frequency, format, and source of the data</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>(irrigation PRE/3 (management OR scheduling)) AND (data PRE/3 (type OR source OR characteristic))</t>
+          <t>TITLE-ABS-KEY((irrigation PRE/3 (management OR control)) AND (data PRE/3 (format OR structure)) AND ({data integration} OR {data compatibility} OR {data standard}))</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -1116,16 +1130,16 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1140,12 +1154,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>â€¢ Types of data most applicable to irrigation management and their typical sources</t>
+          <t>â€¢ Considerations: volume, frequency, format, and source of the data</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>TITLE-ABS(({irrigation management} OR {smart irrigation}) AND (data W/5 (volume OR frequency OR format)) AND ({soil data} OR {plant data} OR {environmental data}))</t>
+          <t>TITLE-ABS(({smart irrigation} OR {intelligent irrigation}) AND (data PRE/3 source) AND ({data reliability} OR {data quality} OR {data uncertainty}))</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -1154,16 +1168,16 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1178,12 +1192,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>â€¢ Types of data most applicable to irrigation management and their typical sources</t>
+          <t>â€¢ Considerations: volume, frequency, format, and source of the data</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY((irrigation AND (data OR information)) AND ({types} OR {sources} OR {examples}))</t>
+          <t>TITLE-ABS-KEY(({real-time irrigation} OR {dynamic irrigation}) AND ({data consideration} OR {data challenge}) AND ({scalability} OR {data fusion} OR {data heterogeneity}))</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -1192,16 +1206,16 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1216,12 +1230,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>â€¢ Types of data most applicable to irrigation management and their typical sources</t>
+          <t>â€¢ Considerations: volume, frequency, format, and source of the data</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY((irrigation PRE/3 (management OR scheduling)) AND ({data source} OR {data type}) AND ({remote sensing} OR iot OR {internet of things}))</t>
+          <t>TITLE-ABS-KEY((irrigation AND data) AND (volume OR frequency OR format OR source))</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -1230,16 +1244,16 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1254,12 +1268,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>â€¢ Types of data most applicable to irrigation management and their typical sources</t>
+          <t>â€¢ Considerations: volume, frequency, format, and source of the data</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY((irrigation PRE/3 management) AND (data PRE/3 (type OR source)) AND sensor AND ({machine learning} OR {decision support}))</t>
+          <t>TITLE-ABS-KEY((irrigation PRE/3 (management OR scheduling OR control)) AND (data PRE/3 (quality OR characteristic OR property)))</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -1268,16 +1282,16 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1287,17 +1301,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3.1 Irrigation management data</t>
+          <t>3.2 Edge Computing and Fog Computing</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>â€¢ Types of data most applicable to irrigation management and their typical sources</t>
+          <t>â€¢ The potential of edge computing and fog computing in real-time irrigation management</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY((irrigation PRE/3 management) AND (data PRE/3 consideration) AND ({big data} OR {data integration} OR {data processing}))</t>
+          <t>TITLE-ABS-KEY(({edge computing} OR {fog computing}) AND ({real-time irrigation} OR {precision irrigation}) AND ({low latency} OR {data processing}))</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -1306,16 +1320,16 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1325,17 +1339,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3.1 Irrigation management data</t>
+          <t>3.2 Edge Computing and Fog Computing</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>â€¢ Types of data most applicable to irrigation management and their typical sources</t>
+          <t>â€¢ The potential of edge computing and fog computing in real-time irrigation management</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({irrigation management} OR {precision irrigation}) AND (data W/5 (type OR source)) AND ({soil moisture} OR {canopy temperature} OR weather OR {crop data}))</t>
+          <t>TITLE-ABS-KEY((edge PRE/3 computing) AND (irrigation PRE/3 management) AND ({smart agriculture} OR iot OR {internet of things}))</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -1344,16 +1358,16 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1368,12 +1382,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>â€¢ Benefits of edge computing in reducing latency, enabling real-time decision-making, and reducing reliance on cloud connectivity</t>
+          <t>â€¢ The potential of edge computing and fog computing in real-time irrigation management</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>TITLE-ABS((edge PRE/3 computing) AND ({cloud independence} OR {local processing}) AND ({precision irrigation} OR {variable rate irrigation}))</t>
+          <t>TITLE-ABS-KEY(({edge intelligence} OR {edge analytics}) AND ({irrigation control} OR {irrigation automation}) AND ({decision making} OR optimization))</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -1382,16 +1396,16 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1406,12 +1420,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>â€¢ Benefits of edge computing in reducing latency, enabling real-time decision-making, and reducing reliance on cloud connectivity</t>
+          <t>â€¢ The potential of edge computing and fog computing in real-time irrigation management</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY((edge OR {distributed computing}) AND ({real-time} OR low-latency OR {local processing}) AND (irrigation PRE/3 (management OR control OR automation)))</t>
+          <t>TITLE-ABS(({fog computing} OR {edge-fog computing}) AND ({real-time irrigation} OR {smart irrigation}) AND ({distributed computing} OR {resource allocation}))</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -1420,16 +1434,16 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1444,12 +1458,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>â€¢ Benefits of edge computing in reducing latency, enabling real-time decision-making, and reducing reliance on cloud connectivity</t>
+          <t>â€¢ The potential of edge computing and fog computing in real-time irrigation management</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY((edge PRE/3 computing) AND ({online decision} OR {real-time action}) AND ({irrigation scheduling} OR {dynamic irrigation management}))</t>
+          <t>TITLE-ABS-KEY((edge PRE/3 computing) AND (irrigation PRE/3 (scheduling OR management)) AND ({machine learning} OR {deep learning} OR {artificial intelligence}))</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -1458,16 +1472,16 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1482,12 +1496,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>â€¢ Benefits of edge computing in reducing latency, enabling real-time decision-making, and reducing reliance on cloud connectivity</t>
+          <t>â€¢ The potential of edge computing and fog computing in real-time irrigation management</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY((edge PRE/3 computing) AND ({reduced latency} OR {faster response}) AND ({irrigation control} OR {irrigation optimization}))</t>
+          <t>TITLE-ABS-KEY(({edge computing} OR {fog computing}) AND ({real-time} OR {precision} OR smart) AND (irrigation))</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -1496,16 +1510,16 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1520,12 +1534,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>â€¢ Benefits of edge computing in reducing latency, enabling real-time decision-making, and reducing reliance on cloud connectivity</t>
+          <t>â€¢ The potential of edge computing and fog computing in real-time irrigation management</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({edge computing} OR {fog computing}) AND ({low latency} OR {real-time decision}) AND ({irrigation management} OR {precision agriculture}))</t>
+          <t>TITLE-ABS-KEY((edge OR fog OR {distributed computing}) AND (irrigation PRE/3 (management OR control OR automation)))</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -1534,16 +1548,16 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1563,7 +1577,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({edge computing} OR {fog computing}) AND ({low latency} OR {real-time} OR {cloud independence}) AND (irrigation))</t>
+          <t>TITLE-ABS-KEY(({edge computing} OR {fog computing}) AND ({low latency} OR {real-time decision}) AND ({irrigation management} OR {precision agriculture}))</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -1572,16 +1586,16 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1601,7 +1615,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({edge intelligence} OR {edge processing}) AND ({real-time analytics} OR {in-situ processing}) AND ({irrigation automation} OR {smart irrigation}))</t>
+          <t>TITLE-ABS-KEY((edge PRE/3 computing) AND ({reduced latency} OR {faster response}) AND ({irrigation control} OR {irrigation optimization}))</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -1610,16 +1624,16 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1634,12 +1648,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>â€¢ The potential of edge computing and fog computing in real-time irrigation management</t>
+          <t>â€¢ Benefits of edge computing in reducing latency, enabling real-time decision-making, and reducing reliance on cloud connectivity</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>TITLE-ABS(({fog computing} OR {edge-fog computing}) AND ({real-time irrigation} OR {smart irrigation}) AND ({distributed computing} OR {resource allocation}))</t>
+          <t>TITLE-ABS-KEY(({edge intelligence} OR {edge processing}) AND ({real-time analytics} OR {in-situ processing}) AND ({irrigation automation} OR {smart irrigation}))</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -1648,16 +1662,16 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1672,12 +1686,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>â€¢ The potential of edge computing and fog computing in real-time irrigation management</t>
+          <t>â€¢ Benefits of edge computing in reducing latency, enabling real-time decision-making, and reducing reliance on cloud connectivity</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY((edge OR fog OR {distributed computing}) AND (irrigation PRE/3 (management OR control OR automation)))</t>
+          <t>TITLE-ABS((edge PRE/3 computing) AND ({cloud independence} OR {local processing}) AND ({precision irrigation} OR {variable rate irrigation}))</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -1686,16 +1700,16 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1710,12 +1724,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>â€¢ The potential of edge computing and fog computing in real-time irrigation management</t>
+          <t>â€¢ Benefits of edge computing in reducing latency, enabling real-time decision-making, and reducing reliance on cloud connectivity</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY((edge PRE/3 computing) AND (irrigation PRE/3 (scheduling OR management)) AND ({machine learning} OR {deep learning} OR {artificial intelligence}))</t>
+          <t>TITLE-ABS-KEY((edge PRE/3 computing) AND ({online decision} OR {real-time action}) AND ({irrigation scheduling} OR {dynamic irrigation management}))</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -1724,16 +1738,16 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1748,12 +1762,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>â€¢ The potential of edge computing and fog computing in real-time irrigation management</t>
+          <t>â€¢ Benefits of edge computing in reducing latency, enabling real-time decision-making, and reducing reliance on cloud connectivity</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY((edge PRE/3 computing) AND (irrigation PRE/3 management) AND ({smart agriculture} OR iot OR {internet of things}))</t>
+          <t>TITLE-ABS-KEY(({edge computing} OR {fog computing}) AND ({low latency} OR {real-time} OR {cloud independence}) AND (irrigation))</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -1762,16 +1776,16 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1786,12 +1800,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>â€¢ The potential of edge computing and fog computing in real-time irrigation management</t>
+          <t>â€¢ Benefits of edge computing in reducing latency, enabling real-time decision-making, and reducing reliance on cloud connectivity</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({edge computing} OR {fog computing}) AND ({real-time irrigation} OR {precision irrigation}) AND ({low latency} OR {data processing}))</t>
+          <t>TITLE-ABS-KEY((edge OR {distributed computing}) AND ({real-time} OR low-latency OR {local processing}) AND (irrigation PRE/3 (management OR control OR automation)))</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -1800,16 +1814,16 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1824,12 +1838,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>â€¢ The potential of edge computing and fog computing in real-time irrigation management</t>
+          <t>â€¢ The role of fog computing in distributing processing and storage across the network, enhancing scalability and reliability</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({edge computing} OR {fog computing}) AND ({real-time} OR {precision} OR smart) AND (irrigation))</t>
+          <t>TITLE-ABS-KEY(({fog computing} OR {edge-fog computing}) AND ({distributed processing} OR {distributed storage}) AND ({irrigation system} OR {precision agriculture}))</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -1838,16 +1852,16 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1862,42 +1876,28 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>â€¢ The potential of edge computing and fog computing in real-time irrigation management</t>
+          <t>â€¢ The role of fog computing in distributing processing and storage across the network, enhancing scalability and reliability</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({edge computing} OR {fog computing}) AND ({real-time} OR {precision} OR smart) AND (irrigation))</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>10.1016/j.iot.2024.101078</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Federated learning for performance behavior detection in a fog-IoT system</t>
-        </is>
-      </c>
+          <t>TITLE-ABS-KEY((fog PRE/3 computing) AND ({scalable architecture} OR {reliability enhancement}) AND ({smart irrigation} OR {IoT-based irrigation}))</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Internet of Things (Netherlands)</t>
-        </is>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.iot.2024.101078</t>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -1914,42 +1914,28 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>â€¢ The potential of edge computing and fog computing in real-time irrigation management</t>
+          <t>â€¢ The role of fog computing in distributing processing and storage across the network, enhancing scalability and reliability</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({edge computing} OR {fog computing}) AND ({real-time} OR {precision} OR smart) AND (irrigation))</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>10.1109/ICMEAS58693.2023.10429854</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>IoT-Aided Intelligent Irrigation System Using Edge Computing</t>
-        </is>
-      </c>
+          <t>TITLE-ABS-KEY(({fog nodes} OR {fog devices}) AND ({load balancing} OR {fault tolerance}) AND ({irrigation network} OR {sensor network}))</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>2023 2nd International Conference on Multidisciplinary Engineering and Applied Science, ICMEAS 2023</t>
-        </is>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1109/ICMEAS58693.2023.10429854</t>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -1966,12 +1952,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>â€¢ The potential of edge computing and fog computing in real-time irrigation management</t>
+          <t>â€¢ The role of fog computing in distributing processing and storage across the network, enhancing scalability and reliability</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({edge intelligence} OR {edge analytics}) AND ({irrigation control} OR {irrigation automation}) AND ({decision making} OR optimization))</t>
+          <t>TITLE-ABS((fog PRE/3 computing) AND ({hierarchical architecture} OR {multi-tier computing}) AND ({precision irrigation} OR {site-specific irrigation}))</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -1980,16 +1966,16 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2009,7 +1995,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>TITLE-ABS((fog PRE/3 computing) AND ({hierarchical architecture} OR {multi-tier computing}) AND ({precision irrigation} OR {site-specific irrigation}))</t>
+          <t>TITLE-ABS-KEY((fog PRE/3 computing) AND ({resource optimization} OR {performance improvement}) AND ({real-time irrigation} OR {adaptive irrigation control}))</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -2018,16 +2004,16 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2047,7 +2033,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY((fog OR {distributed processing}) AND ({load balancing} OR {fault tolerance} OR {resource optimization}) AND (irrigation PRE/3 (system OR network OR management)))</t>
+          <t>TITLE-ABS-KEY(({fog computing} OR {distributed computing}) AND ({scalability} OR reliability OR {performance optimization}) AND (irrigation))</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -2056,16 +2042,16 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2085,7 +2071,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY((fog PRE/3 computing) AND ({resource optimization} OR {performance improvement}) AND ({real-time irrigation} OR {adaptive irrigation control}))</t>
+          <t>TITLE-ABS-KEY((fog OR {distributed processing}) AND ({load balancing} OR {fault tolerance} OR {resource optimization}) AND (irrigation PRE/3 (system OR network OR management)))</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -2094,16 +2080,16 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2113,17 +2099,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3.2 Edge Computing and Fog Computing</t>
+          <t>3.3 Automation of Data Collection</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>â€¢ The role of fog computing in distributing processing and storage across the network, enhancing scalability and reliability</t>
+          <t>Automation of Data Collection</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY((fog PRE/3 computing) AND ({scalable architecture} OR {reliability enhancement}) AND ({smart irrigation} OR {IoT-based irrigation}))</t>
+          <t>TITLE-ABS-KEY(({data collection} OR sensing OR monitoring) AND (automat* OR {autonomous system}) AND ({precision agriculture} OR {smart farming}))</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -2132,16 +2118,16 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2151,17 +2137,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>3.2 Edge Computing and Fog Computing</t>
+          <t>3.3 Automation of Data Collection</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>â€¢ The role of fog computing in distributing processing and storage across the network, enhancing scalability and reliability</t>
+          <t>Automation of Data Collection</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({fog computing} OR {distributed computing}) AND ({scalability} OR reliability OR {performance optimization}) AND (irrigation))</t>
+          <t>TITLE-ABS-KEY((irrigation PRE/3 management) AND ({automatic data acquisition} OR {automated data gathering}) AND (sensor OR iot OR {internet of things}))</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -2170,16 +2156,16 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2189,17 +2175,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>3.2 Edge Computing and Fog Computing</t>
+          <t>3.3 Automation of Data Collection</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>â€¢ The role of fog computing in distributing processing and storage across the network, enhancing scalability and reliability</t>
+          <t>Automation of Data Collection</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({fog computing} OR {edge-fog computing}) AND ({distributed processing} OR {distributed storage}) AND ({irrigation system} OR {precision agriculture}))</t>
+          <t>TITLE-ABS-KEY(({intelligent data collection} OR {adaptive sampling}) AND ({irrigation scheduling} OR {irrigation control}) AND ({machine learning} OR {artificial intelligence}))</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -2208,16 +2194,16 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2227,17 +2213,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>3.2 Edge Computing and Fog Computing</t>
+          <t>3.3 Automation of Data Collection</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>â€¢ The role of fog computing in distributing processing and storage across the network, enhancing scalability and reliability</t>
+          <t>Automation of Data Collection</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({fog nodes} OR {fog devices}) AND ({load balancing} OR {fault tolerance}) AND ({irrigation network} OR {sensor network}))</t>
+          <t>TITLE-ABS(({robotic data collection} OR {unmanned data acquisition}) AND ({precision irrigation} OR {variable rate irrigation}) AND ({remote sensing} OR {proximal sensing}))</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -2246,16 +2232,16 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2275,7 +2261,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>TITLE-ABS(({robotic data collection} OR {unmanned data acquisition}) AND ({precision irrigation} OR {variable rate irrigation}) AND ({remote sensing} OR {proximal sensing}))</t>
+          <t>TITLE-ABS-KEY(({self-configuring sensors} OR {plug-and-play sensors}) AND ({irrigation automation} OR {smart irrigation}) AND ({wireless sensor network} OR wsn))</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -2284,16 +2270,16 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2322,16 +2308,16 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2360,16 +2346,16 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2379,17 +2365,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>3.3 Automation of Data Collection</t>
+          <t>3.4 Real-Time Data Transmission Protocols and Technologies</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Automation of Data Collection</t>
+          <t>â€¢ Exploration of MQTT and client-server IoT networks for real-time data transmission</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY((irrigation PRE/3 management) AND ({automatic data acquisition} OR {automated data gathering}) AND (sensor OR iot OR {internet of things}))</t>
+          <t>TITLE-ABS-KEY(mqtt AND ({real-time data} OR {instant messaging}) AND ({irrigation system} OR {precision agriculture} OR {smart farming}))</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -2398,16 +2384,16 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2417,17 +2403,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>3.3 Automation of Data Collection</t>
+          <t>3.4 Real-Time Data Transmission Protocols and Technologies</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Automation of Data Collection</t>
+          <t>â€¢ Exploration of MQTT and client-server IoT networks for real-time data transmission</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({data collection} OR sensing OR monitoring) AND (automat* OR {autonomous system}) AND ({precision agriculture} OR {smart farming}))</t>
+          <t>TITLE-ABS-KEY((mqtt OR {message queue telemetry transport}) AND ({client-server model} OR {publish-subscribe}) AND ({IoT network} OR {sensor network}))</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -2436,16 +2422,16 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2455,17 +2441,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>3.3 Automation of Data Collection</t>
+          <t>3.4 Real-Time Data Transmission Protocols and Technologies</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Automation of Data Collection</t>
+          <t>â€¢ Exploration of MQTT and client-server IoT networks for real-time data transmission</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({intelligent data collection} OR {adaptive sampling}) AND ({irrigation scheduling} OR {irrigation control}) AND ({machine learning} OR {artificial intelligence}))</t>
+          <t>TITLE-ABS-KEY((mqtt PRE/3 protocol) AND ({low latency} OR {real-time communication}) AND ({irrigation management} OR {irrigation scheduling}))</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -2474,16 +2460,16 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2493,17 +2479,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>3.3 Automation of Data Collection</t>
+          <t>3.4 Real-Time Data Transmission Protocols and Technologies</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Automation of Data Collection</t>
+          <t>â€¢ Exploration of MQTT and client-server IoT networks for real-time data transmission</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({self-configuring sensors} OR {plug-and-play sensors}) AND ({irrigation automation} OR {smart irrigation}) AND ({wireless sensor network} OR wsn))</t>
+          <t>TITLE-ABS((mqtt OR {client-server architecture}) AND ({data streaming} OR {data transmission}) AND ({precision irrigation} OR {site-specific irrigation}))</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -2512,16 +2498,16 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2536,12 +2522,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>â€¢ Comparison of application layer protocols (e.g., XMPP, CoAP, SOAP, HTTP) and their suitability for real-time irrigation management</t>
+          <t>â€¢ Exploration of MQTT and client-server IoT networks for real-time data transmission</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>TITLE-ABS((coap OR {constrained application protocol}) AND ({lightweight protocol} OR {resource-constrained devices}) AND ({precision irrigation} OR {site-specific irrigation}))</t>
+          <t>TITLE-ABS-KEY((mqtt PRE/3 implementation) AND ({scalability} OR {reliability} OR {quality of service}) AND ({smart irrigation} OR {automated irrigation}))</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -2550,16 +2536,16 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2574,12 +2560,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>â€¢ Comparison of application layer protocols (e.g., XMPP, CoAP, SOAP, HTTP) and their suitability for real-time irrigation management</t>
+          <t>â€¢ Exploration of MQTT and client-server IoT networks for real-time data transmission</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY((soap OR {simple object access protocol}) AND (http OR {hypertext transfer protocol}) AND ({interoperability} OR {web services}) AND ({smart irrigation} OR {irrigation control}))</t>
+          <t>TITLE-ABS-KEY(mqtt AND ({real-time} OR {low latency}) AND ({data transmission} OR {data communication}) AND (irrigation OR {smart farming}))</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -2588,16 +2574,16 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" t="n">
-        <v>0</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2612,12 +2598,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>â€¢ Comparison of application layer protocols (e.g., XMPP, CoAP, SOAP, HTTP) and their suitability for real-time irrigation management</t>
+          <t>â€¢ Exploration of MQTT and client-server IoT networks for real-time data transmission</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY((xmpp OR coap OR soap OR http) AND ({application layer protocol} OR {data transfer protocol}) AND ({irrigation management} OR {precision agriculture}))</t>
+          <t>TITLE-ABS-KEY({messaging protocol} AND ({real-time} OR {low latency}) AND ({data transmission} OR {data communication}) AND (irrigation OR {precision agriculture}))</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -2626,16 +2612,16 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2655,7 +2641,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY((xmpp OR {extensible messaging and presence protocol}) AND ({instant messaging} OR {real-time communication}) AND ({irrigation automation} OR {irrigation scheduling}))</t>
+          <t>TITLE-ABS-KEY((xmpp OR coap OR soap OR http) AND ({application layer protocol} OR {data transfer protocol}) AND ({irrigation management} OR {precision agriculture}))</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -2664,16 +2650,16 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>0</v>
-      </c>
-      <c r="L58" t="n">
-        <v>0</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2693,7 +2679,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({application layer protocol} OR {data transfer protocol}) AND ({real-time} OR {low latency}) AND (irrigation OR {precision agriculture}))</t>
+          <t>TITLE-ABS-KEY(({protocol comparison} OR {protocol evaluation}) AND ({real-time performance} OR {low latency}) AND ({smart irrigation} OR {IoT-based irrigation}))</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -2702,16 +2688,16 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L59" t="n">
-        <v>0</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2731,7 +2717,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({protocol comparison} OR {protocol evaluation} OR {protocol characteristic}) AND ({real-time} OR {low latency} OR performance) AND (irrigation OR {smart farming}))</t>
+          <t>TITLE-ABS-KEY((xmpp OR {extensible messaging and presence protocol}) AND ({instant messaging} OR {real-time communication}) AND ({irrigation automation} OR {irrigation scheduling}))</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -2740,16 +2726,16 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" t="n">
-        <v>0</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2769,7 +2755,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({protocol comparison} OR {protocol evaluation}) AND ({real-time performance} OR {low latency}) AND ({smart irrigation} OR {IoT-based irrigation}))</t>
+          <t>TITLE-ABS((coap OR {constrained application protocol}) AND ({lightweight protocol} OR {resource-constrained devices}) AND ({precision irrigation} OR {site-specific irrigation}))</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -2778,16 +2764,16 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" t="n">
-        <v>0</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2802,12 +2788,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>â€¢ Exploration of MQTT and client-server IoT networks for real-time data transmission</t>
+          <t>â€¢ Comparison of application layer protocols (e.g., XMPP, CoAP, SOAP, HTTP) and their suitability for real-time irrigation management</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>TITLE-ABS((mqtt OR {client-server architecture}) AND ({data streaming} OR {data transmission}) AND ({precision irrigation} OR {site-specific irrigation}))</t>
+          <t>TITLE-ABS-KEY((soap OR {simple object access protocol}) AND (http OR {hypertext transfer protocol}) AND ({interoperability} OR {web services}) AND ({smart irrigation} OR {irrigation control}))</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -2816,16 +2802,16 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2840,12 +2826,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>â€¢ Exploration of MQTT and client-server IoT networks for real-time data transmission</t>
+          <t>â€¢ Comparison of application layer protocols (e.g., XMPP, CoAP, SOAP, HTTP) and their suitability for real-time irrigation management</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY((mqtt OR {message queue telemetry transport}) AND ({client-server model} OR {publish-subscribe}) AND ({IoT network} OR {sensor network}))</t>
+          <t>TITLE-ABS-KEY(({application layer protocol} OR {data transfer protocol}) AND ({real-time} OR {low latency}) AND (irrigation OR {precision agriculture}))</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -2854,16 +2840,16 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>0</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2878,12 +2864,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>â€¢ Exploration of MQTT and client-server IoT networks for real-time data transmission</t>
+          <t>â€¢ Comparison of application layer protocols (e.g., XMPP, CoAP, SOAP, HTTP) and their suitability for real-time irrigation management</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY((mqtt PRE/3 implementation) AND ({scalability} OR {reliability} OR {quality of service}) AND ({smart irrigation} OR {automated irrigation}))</t>
+          <t>TITLE-ABS-KEY(({protocol comparison} OR {protocol evaluation} OR {protocol characteristic}) AND ({real-time} OR {low latency} OR performance) AND (irrigation OR {smart farming}))</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -2892,16 +2878,16 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" t="n">
-        <v>0</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2911,17 +2897,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>3.4 Real-Time Data Transmission Protocols and Technologies</t>
+          <t>3.5 Challenges and Solutions in Real-Time Data Transmission</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>â€¢ Exploration of MQTT and client-server IoT networks for real-time data transmission</t>
+          <t>â€¢ Obstacles in transmitting data in real-time</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY((mqtt PRE/3 protocol) AND ({low latency} OR {real-time communication}) AND ({irrigation management} OR {irrigation scheduling}))</t>
+          <t>TITLE-ABS-KEY(({data transmission} OR {data communication}) AND (challenge OR obstacle OR issue) AND ({real-time} OR {low latency}) AND ({irrigation system} OR {precision agriculture}))</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -2930,16 +2916,16 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
-      <c r="L65" t="n">
-        <v>0</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2949,17 +2935,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>3.4 Real-Time Data Transmission Protocols and Technologies</t>
+          <t>3.5 Challenges and Solutions in Real-Time Data Transmission</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>â€¢ Exploration of MQTT and client-server IoT networks for real-time data transmission</t>
+          <t>â€¢ Obstacles in transmitting data in real-time</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(mqtt AND ({real-time data} OR {instant messaging}) AND ({irrigation system} OR {precision agriculture} OR {smart farming}))</t>
+          <t>TITLE-ABS-KEY(({transmission delay} OR {communication overhead} OR {bandwidth limitation}) AND ({real-time data} OR {instant data delivery}) AND ({smart irrigation} OR {IoT-based irrigation}))</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -2968,16 +2954,16 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>0</v>
-      </c>
-      <c r="L66" t="n">
-        <v>0</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2987,17 +2973,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>3.4 Real-Time Data Transmission Protocols and Technologies</t>
+          <t>3.5 Challenges and Solutions in Real-Time Data Transmission</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>â€¢ Exploration of MQTT and client-server IoT networks for real-time data transmission</t>
+          <t>â€¢ Obstacles in transmitting data in real-time</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(mqtt AND ({real-time} OR {low latency}) AND ({data transmission} OR {data communication}) AND (irrigation OR {smart farming}))</t>
+          <t>TITLE-ABS-KEY(({data loss} OR {packet loss} OR {transmission failure}) AND ({real-time monitoring} OR {continuous data streaming}) AND ({irrigation management} OR {irrigation control}))</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -3006,16 +2992,16 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>0</v>
-      </c>
-      <c r="L67" t="n">
-        <v>0</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3025,17 +3011,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>3.4 Real-Time Data Transmission Protocols and Technologies</t>
+          <t>3.5 Challenges and Solutions in Real-Time Data Transmission</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>â€¢ Exploration of MQTT and client-server IoT networks for real-time data transmission</t>
+          <t>â€¢ Obstacles in transmitting data in real-time</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY({messaging protocol} AND ({real-time} OR {low latency}) AND ({data transmission} OR {data communication}) AND (irrigation OR {precision agriculture}))</t>
+          <t>TITLE-ABS(({network congestion} OR {traffic load} OR {data collision}) AND ({real-time transmission} OR {instant communication}) AND ({precision irrigation} OR {site-specific irrigation}))</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -3044,16 +3030,16 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>0</v>
-      </c>
-      <c r="L68" t="n">
-        <v>0</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3073,7 +3059,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>TITLE-ABS(({network congestion} OR {traffic load} OR {data collision}) AND ({real-time transmission} OR {instant communication}) AND ({precision irrigation} OR {site-specific irrigation}))</t>
+          <t>TITLE-ABS-KEY(({signal interference} OR {signal attenuation} OR {signal noise}) AND ({wireless data transmission} OR {radio communication}) AND ({irrigation automation} OR {smart irrigation}))</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -3082,16 +3068,16 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
-      <c r="L69" t="n">
-        <v>0</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3111,7 +3097,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY((transmission OR communication) AND (issue OR problem OR difficulty) AND ({real-time} OR {instant} OR {low latency}) AND (irrigation AND (data OR information)))</t>
+          <t>TITLE-ABS-KEY(({data transmission} OR {data communication}) AND (challenge OR obstacle OR limitation) AND ({real-time} OR {low latency}) AND (irrigation OR {precision agriculture}))</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -3120,16 +3106,16 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>0</v>
-      </c>
-      <c r="L70" t="n">
-        <v>0</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3149,7 +3135,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({data loss} OR {packet loss} OR {transmission failure}) AND ({real-time monitoring} OR {continuous data streaming}) AND ({irrigation management} OR {irrigation control}))</t>
+          <t>TITLE-ABS-KEY((transmission OR communication) AND (issue OR problem OR difficulty) AND ({real-time} OR {instant} OR {low latency}) AND (irrigation AND (data OR information)))</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -3158,16 +3144,16 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>0</v>
-      </c>
-      <c r="L71" t="n">
-        <v>0</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3182,12 +3168,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>â€¢ Obstacles in transmitting data in real-time</t>
+          <t>â€¢ Solutions implemented to address these challenges</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({data transmission} OR {data communication}) AND (challenge OR obstacle OR issue) AND ({real-time} OR {low latency}) AND ({irrigation system} OR {precision agriculture}))</t>
+          <t>TITLE-ABS-KEY((solution OR {coping strategy} OR {overcoming challenge}) AND ({real-time data transmission} OR {instant data communication}) AND ({irrigation system} OR {precision agriculture}))</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -3196,16 +3182,16 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L72" t="n">
-        <v>0</v>
-      </c>
-      <c r="M72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3220,42 +3206,28 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>â€¢ Obstacles in transmitting data in real-time</t>
+          <t>â€¢ Solutions implemented to address these challenges</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({data transmission} OR {data communication}) AND (challenge OR obstacle OR issue) AND ({real-time} OR {low latency}) AND ({irrigation system} OR {precision agriculture}))</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>10.1109/ICSCAN58655.2023.10395491</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Enhancing Irrigation Efficiency with AI-Based Instinctive Irrigation System (IIS) in Wireless Sensor Networks</t>
-        </is>
-      </c>
+          <t>TITLE-ABS-KEY(({transmission optimization} OR {communication efficiency} OR {protocol enhancement}) AND ({low latency} OR {real-time performance}) AND ({smart irrigation} OR {IoT-based irrigation}))</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>2023 International Conference on System, Computation, Automation and Networking, ICSCAN 2023</t>
-        </is>
-      </c>
-      <c r="K73" t="n">
-        <v>0</v>
-      </c>
-      <c r="L73" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0</v>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1109/ICSCAN58655.2023.10395491</t>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -3272,12 +3244,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>â€¢ Obstacles in transmitting data in real-time</t>
+          <t>â€¢ Solutions implemented to address these challenges</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({data transmission} OR {data communication}) AND (challenge OR obstacle OR limitation) AND ({real-time} OR {low latency}) AND (irrigation OR {precision agriculture}))</t>
+          <t>TITLE-ABS-KEY(({data compression} OR {data reduction} OR {data aggregation}) AND ({bandwidth saving} OR {transmission efficiency}) AND ({irrigation management} OR {irrigation control}))</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -3286,16 +3258,16 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>0</v>
-      </c>
-      <c r="L74" t="n">
-        <v>0</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3310,12 +3282,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>â€¢ Obstacles in transmitting data in real-time</t>
+          <t>â€¢ Solutions implemented to address these challenges</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({signal interference} OR {signal attenuation} OR {signal noise}) AND ({wireless data transmission} OR {radio communication}) AND ({irrigation automation} OR {smart irrigation}))</t>
+          <t>TITLE-ABS(({adaptive routing} OR {dynamic path selection}) AND ({network reliability} OR {transmission robustness}) AND ({precision irrigation} OR {site-specific irrigation}))</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -3324,16 +3296,16 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>0</v>
-      </c>
-      <c r="L75" t="n">
-        <v>0</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3348,12 +3320,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>â€¢ Obstacles in transmitting data in real-time</t>
+          <t>â€¢ Solutions implemented to address these challenges</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({transmission delay} OR {communication overhead} OR {bandwidth limitation}) AND ({real-time data} OR {instant data delivery}) AND ({smart irrigation} OR {IoT-based irrigation}))</t>
+          <t>TITLE-ABS-KEY(({cognitive radio} OR {spectrum sensing} OR {dynamic spectrum access}) AND ({interference mitigation} OR {signal quality improvement}) AND ({irrigation automation} OR {smart irrigation}))</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -3362,16 +3334,16 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>0</v>
-      </c>
-      <c r="L76" t="n">
-        <v>0</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3391,7 +3363,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>TITLE-ABS(({adaptive routing} OR {dynamic path selection}) AND ({network reliability} OR {transmission robustness}) AND ({precision irrigation} OR {site-specific irrigation}))</t>
+          <t>TITLE-ABS-KEY((solution OR {overcoming challenge} OR {addressing issue}) AND ({real-time data transmission} OR {instant data communication} OR {low latency}) AND (irrigation OR {precision agriculture}))</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -3400,16 +3372,16 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>0</v>
-      </c>
-      <c r="L77" t="n">
-        <v>0</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3429,7 +3401,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY((solution OR {coping strategy} OR {overcoming challenge}) AND ({real-time data transmission} OR {instant data communication}) AND ({irrigation system} OR {precision agriculture}))</t>
+          <t>TITLE-ABS-KEY(({improving performance} OR {enhancing efficiency} OR {mitigating problem}) AND ({data transmission} OR {data communication}) AND (irrigation AND {real-time}))</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -3438,16 +3410,16 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>0</v>
-      </c>
-      <c r="L78" t="n">
-        <v>0</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3457,17 +3429,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>3.5 Challenges and Solutions in Real-Time Data Transmission</t>
+          <t>3.6 IoT Network Architectures and Variable Rate Irrigation (VRI) for Real-Time Irrigation</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>â€¢ Solutions implemented to address these challenges</t>
+          <t>â€¢ Strategies for collecting and managing VRI data at scale</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY((solution OR {overcoming challenge} OR {addressing issue}) AND ({real-time data transmission} OR {instant data communication} OR {low latency}) AND (irrigation OR {precision agriculture}))</t>
+          <t>TITLE-ABS-KEY(({precision irrigation} OR {site-specific irrigation} OR {variable rate irrigation}) AND ({data collection} OR {data management}) AND (scale OR scalability OR {large scale}))</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -3476,16 +3448,16 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>0</v>
-      </c>
-      <c r="L79" t="n">
-        <v>0</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3495,17 +3467,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>3.5 Challenges and Solutions in Real-Time Data Transmission</t>
+          <t>3.6 IoT Network Architectures and Variable Rate Irrigation (VRI) for Real-Time Irrigation</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>â€¢ Solutions implemented to address these challenges</t>
+          <t>â€¢ Strategies for collecting and managing VRI data at scale</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({cognitive radio} OR {spectrum sensing} OR {dynamic spectrum access}) AND ({interference mitigation} OR {signal quality improvement}) AND ({irrigation automation} OR {smart irrigation}))</t>
+          <t>TITLE-ABS-KEY((vri OR {variable rate irrigation}) AND ({data acquisition} OR {data handling} OR {data processing}) AND ({big data} OR {data volume} OR {data velocity}))</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -3514,16 +3486,16 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>0</v>
-      </c>
-      <c r="L80" t="n">
-        <v>0</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3533,17 +3505,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>3.5 Challenges and Solutions in Real-Time Data Transmission</t>
+          <t>3.6 IoT Network Architectures and Variable Rate Irrigation (VRI) for Real-Time Irrigation</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>â€¢ Solutions implemented to address these challenges</t>
+          <t>â€¢ Strategies for collecting and managing VRI data at scale</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({data compression} OR {data reduction} OR {data aggregation}) AND ({bandwidth saving} OR {transmission efficiency}) AND ({irrigation management} OR {irrigation control}))</t>
+          <t>TITLE-ABS-KEY(({spatial data} OR {temporal data}) AND ({data integration} OR {data fusion}) AND ({irrigation management} OR {irrigation optimization}) AND ({precision agriculture} OR {smart farming}))</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -3552,16 +3524,16 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>0</v>
-      </c>
-      <c r="L81" t="n">
-        <v>0</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3571,17 +3543,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>3.5 Challenges and Solutions in Real-Time Data Transmission</t>
+          <t>3.6 IoT Network Architectures and Variable Rate Irrigation (VRI) for Real-Time Irrigation</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>â€¢ Solutions implemented to address these challenges</t>
+          <t>â€¢ Strategies for collecting and managing VRI data at scale</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({improving performance} OR {enhancing efficiency} OR {mitigating problem}) AND ({data transmission} OR {data communication}) AND (irrigation AND {real-time}))</t>
+          <t>TITLE-ABS(({data quality} OR {data cleaning} OR {data filtering}) AND ({variable rate irrigation} OR {precision irrigation}) AND ({data reliability} OR {decision support}))</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -3590,16 +3562,16 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>0</v>
-      </c>
-      <c r="L82" t="n">
-        <v>0</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3609,17 +3581,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>3.5 Challenges and Solutions in Real-Time Data Transmission</t>
+          <t>3.6 IoT Network Architectures and Variable Rate Irrigation (VRI) for Real-Time Irrigation</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>â€¢ Solutions implemented to address these challenges</t>
+          <t>â€¢ Strategies for collecting and managing VRI data at scale</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({transmission optimization} OR {communication efficiency} OR {protocol enhancement}) AND ({low latency} OR {real-time performance}) AND ({smart irrigation} OR {IoT-based irrigation}))</t>
+          <t>TITLE-ABS-KEY(({distributed data management} OR {data partitioning}) AND ({high-resolution data} OR {fine-grained data}) AND ({irrigation control} OR {precision application}) AND vri)</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -3628,16 +3600,16 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>0</v>
-      </c>
-      <c r="L83" t="n">
-        <v>0</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3652,12 +3624,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>â€¢ Autonomous planning and scheduling of VRI using machine learning and optimization techniques</t>
+          <t>â€¢ Strategies for collecting and managing VRI data at scale</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>TITLE-ABS(({multi-objective optimization} OR {Pareto optimization}) AND ({water productivity} OR {crop yield} OR {environmental impact}) AND ({variable rate irrigation} OR {precision irrigation}))</t>
+          <t>TITLE-ABS-KEY(({variable rate irrigation} OR vri) AND ({data handling} OR {data processing} OR {data management}) AND ({large scale} OR {high resolution}))</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -3666,16 +3638,16 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>0</v>
-      </c>
-      <c r="L84" t="n">
-        <v>0</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3690,12 +3662,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>â€¢ Autonomous planning and scheduling of VRI using machine learning and optimization techniques</t>
+          <t>â€¢ Strategies for collecting and managing VRI data at scale</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({data-driven modeling} OR {predictive modeling}) AND ({irrigation scheduling} OR {irrigation decision}) AND ({machine learning} OR ai) AND ({site-specific irrigation} OR vri))</t>
+          <t>TITLE-ABS-KEY(({precision irrigation} OR {site-specific irrigation}) AND ({data quality} OR {data integration}) AND ({decision support} OR optimization))</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -3704,16 +3676,16 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>0</v>
-      </c>
-      <c r="L85" t="n">
-        <v>0</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3733,7 +3705,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({evolutionary algorithm} OR {swarm intelligence}) AND ({irrigation optimization} OR {water allocation}) AND vri)</t>
+          <t>TITLE-ABS-KEY(({variable rate irrigation} OR vri OR {precision irrigation}) AND ({autonomous planning} OR {automated scheduling}) AND ({machine learning} OR {artificial intelligence} OR optimization))</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -3742,16 +3714,16 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>0</v>
-      </c>
-      <c r="L86" t="n">
-        <v>0</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3771,7 +3743,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({machine learning} OR {artificial intelligence} OR {data-driven modeling}) AND ({water productivity} OR {irrigation optimization}) AND ({variable rate irrigation} OR {site-specific irrigation}))</t>
+          <t>TITLE-ABS-KEY(({reinforcement learning} OR {deep learning}) AND ({optimal irrigation} OR {adaptive irrigation}) AND ({site-specific management} OR {precision agriculture}))</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
@@ -3780,16 +3752,16 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>0</v>
-      </c>
-      <c r="L87" t="n">
-        <v>0</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3809,7 +3781,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({reinforcement learning} OR {deep learning}) AND ({optimal irrigation} OR {adaptive irrigation}) AND ({site-specific management} OR {precision agriculture}))</t>
+          <t>TITLE-ABS-KEY(({evolutionary algorithm} OR {swarm intelligence}) AND ({irrigation optimization} OR {water allocation}) AND vri)</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -3818,16 +3790,16 @@
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>0</v>
-      </c>
-      <c r="L88" t="n">
-        <v>0</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3847,7 +3819,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({variable rate irrigation} OR vri OR {precision irrigation}) AND ({autonomous planning} OR {automated scheduling}) AND ({machine learning} OR {artificial intelligence} OR optimization))</t>
+          <t>TITLE-ABS(({multi-objective optimization} OR {Pareto optimization}) AND ({water productivity} OR {crop yield} OR {environmental impact}) AND ({variable rate irrigation} OR {precision irrigation}))</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
@@ -3856,16 +3828,16 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>0</v>
-      </c>
-      <c r="L89" t="n">
-        <v>0</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3885,7 +3857,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({variable rate irrigation} OR vri OR {precision irrigation}) AND ({autonomous} OR {intelligent system} OR optimization) AND ({irrigation scheduling} OR {irrigation planning}))</t>
+          <t>TITLE-ABS-KEY(({data-driven modeling} OR {predictive modeling}) AND ({irrigation scheduling} OR {irrigation decision}) AND ({machine learning} OR ai) AND ({site-specific irrigation} OR vri))</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -3894,16 +3866,16 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>0</v>
-      </c>
-      <c r="L90" t="n">
-        <v>0</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3918,12 +3890,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>â€¢ Challenges and solutions for implementing VRI in real-time, end-to-end automated irrigation systems</t>
+          <t>â€¢ Autonomous planning and scheduling of VRI using machine learning and optimization techniques</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>TITLE-ABS(({scalability issue} OR {performance bottleneck}) AND ({high-resolution application} OR {fine-grained control}) AND ({end-to-end irrigation system} OR {closed-loop irrigation control}) AND vri)</t>
+          <t>TITLE-ABS-KEY(({variable rate irrigation} OR vri OR {precision irrigation}) AND ({autonomous} OR {intelligent system} OR optimization) AND ({irrigation scheduling} OR {irrigation planning}))</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
@@ -3932,16 +3904,16 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>0</v>
-      </c>
-      <c r="L91" t="n">
-        <v>0</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3956,12 +3928,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>â€¢ Challenges and solutions for implementing VRI in real-time, end-to-end automated irrigation systems</t>
+          <t>â€¢ Autonomous planning and scheduling of VRI using machine learning and optimization techniques</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY((solution OR {overcoming challenge} OR {addressing issue}) AND ({real-time implementation} OR {practical deployment}) AND ({variable rate irrigation} OR vri) AND ({IoT-based irrigation} OR {smart irrigation system}))</t>
+          <t>TITLE-ABS-KEY(({machine learning} OR {artificial intelligence} OR {data-driven modeling}) AND ({water productivity} OR {irrigation optimization}) AND ({variable rate irrigation} OR {site-specific irrigation}))</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -3970,16 +3942,16 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>0</v>
-      </c>
-      <c r="L92" t="n">
-        <v>0</v>
-      </c>
-      <c r="M92" t="n">
-        <v>0</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4008,16 +3980,16 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>0</v>
-      </c>
-      <c r="L93" t="n">
-        <v>0</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4037,7 +4009,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({end-to-end system} OR {fully automated system}) AND ({variable rate irrigation} OR vri) AND (challenge OR issue OR solution))</t>
+          <t>TITLE-ABS-KEY(({system integration} OR {seamless integration}) AND ({real-time control} OR {dynamic control}) AND vri AND ({practical challenge} OR {technical difficulty}))</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
@@ -4046,16 +4018,16 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>0</v>
-      </c>
-      <c r="L94" t="n">
-        <v>0</v>
-      </c>
-      <c r="M94" t="n">
-        <v>0</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4084,16 +4056,16 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>0</v>
-      </c>
-      <c r="L95" t="n">
-        <v>0</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4113,7 +4085,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({system integration} OR {implementation challenge}) AND ({real-time control} OR {high-resolution application}) AND ({variable rate irrigation} OR vri))</t>
+          <t>TITLE-ABS(({scalability issue} OR {performance bottleneck}) AND ({high-resolution application} OR {fine-grained control}) AND ({end-to-end irrigation system} OR {closed-loop irrigation control}) AND vri)</t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
@@ -4122,16 +4094,16 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>0</v>
-      </c>
-      <c r="L96" t="n">
-        <v>0</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4151,7 +4123,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({system integration} OR {seamless integration}) AND ({real-time control} OR {dynamic control}) AND vri AND ({practical challenge} OR {technical difficulty}))</t>
+          <t>TITLE-ABS-KEY((solution OR {overcoming challenge} OR {addressing issue}) AND ({real-time implementation} OR {practical deployment}) AND ({variable rate irrigation} OR vri) AND ({IoT-based irrigation} OR {smart irrigation system}))</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
@@ -4160,16 +4132,16 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>0</v>
-      </c>
-      <c r="L97" t="n">
-        <v>0</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4184,12 +4156,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>â€¢ Strategies for collecting and managing VRI data at scale</t>
+          <t>â€¢ Challenges and solutions for implementing VRI in real-time, end-to-end automated irrigation systems</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>TITLE-ABS(({data quality} OR {data cleaning} OR {data filtering}) AND ({variable rate irrigation} OR {precision irrigation}) AND ({data reliability} OR {decision support}))</t>
+          <t>TITLE-ABS-KEY(({end-to-end system} OR {fully automated system}) AND ({variable rate irrigation} OR vri) AND (challenge OR issue OR solution))</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
@@ -4198,16 +4170,16 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>0</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4222,12 +4194,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>â€¢ Strategies for collecting and managing VRI data at scale</t>
+          <t>â€¢ Challenges and solutions for implementing VRI in real-time, end-to-end automated irrigation systems</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY((vri OR {variable rate irrigation}) AND ({data acquisition} OR {data handling} OR {data processing}) AND ({big data} OR {data volume} OR {data velocity}))</t>
+          <t>TITLE-ABS-KEY(({system integration} OR {implementation challenge}) AND ({real-time control} OR {high-resolution application}) AND ({variable rate irrigation} OR vri))</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
@@ -4236,16 +4208,16 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>0</v>
-      </c>
-      <c r="L99" t="n">
-        <v>0</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4255,35 +4227,47 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>3.6 IoT Network Architectures and Variable Rate Irrigation (VRI) for Real-Time Irrigation</t>
+          <t>3.1 Irrigation management data</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>â€¢ Strategies for collecting and managing VRI data at scale</t>
+          <t>â€¢ Types of data most applicable to irrigation management and their typical sources</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({distributed data management} OR {data partitioning}) AND ({high-resolution data} OR {fine-grained data}) AND ({irrigation control} OR {precision application}) AND vri)</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
+          <t>TITLE-ABS-KEY(({irrigation management} OR {precision irrigation}) AND (data W/5 (type OR source)) AND ({soil moisture} OR {canopy temperature} OR weather OR {crop data}))</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>10.1016/j.agwat.2022.107492</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Making the invisible visible: Co-learning guided development of an operational tool for irrigation management</t>
+        </is>
+      </c>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>0</v>
-      </c>
-      <c r="L100" t="n">
-        <v>0</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Agricultural Water Management</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4293,35 +4277,47 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>3.6 IoT Network Architectures and Variable Rate Irrigation (VRI) for Real-Time Irrigation</t>
+          <t>3.1 Irrigation management data</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>â€¢ Strategies for collecting and managing VRI data at scale</t>
+          <t>â€¢ Types of data most applicable to irrigation management and their typical sources</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({precision irrigation} OR {site-specific irrigation} OR {variable rate irrigation}) AND ({data collection} OR {data management}) AND (scale OR scalability OR {large scale}))</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
+          <t>TITLE-ABS-KEY(({irrigation management} OR {precision irrigation}) AND (data W/5 (type OR source)) AND ({soil moisture} OR {canopy temperature} OR weather OR {crop data}))</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>10.1016/j.futur.2021.11.013</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Towards Smart Farming: Fog-enabled intelligent irrigation system using deep neural networks</t>
+        </is>
+      </c>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>0</v>
-      </c>
-      <c r="L101" t="n">
-        <v>0</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Future Generation Computer Systems</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4331,35 +4327,47 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>3.6 IoT Network Architectures and Variable Rate Irrigation (VRI) for Real-Time Irrigation</t>
+          <t>3.1 Irrigation management data</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>â€¢ Strategies for collecting and managing VRI data at scale</t>
+          <t>â€¢ Types of data most applicable to irrigation management and their typical sources</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({precision irrigation} OR {site-specific irrigation}) AND ({data quality} OR {data integration}) AND ({decision support} OR optimization))</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr"/>
+          <t>TITLE-ABS-KEY(({irrigation management} OR {precision irrigation}) AND (data W/5 (type OR source)) AND ({soil moisture} OR {canopy temperature} OR weather OR {crop data}))</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>10.1515/chem-2022-0264</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Model predictive control for precision irrigation of a Quinoa crop</t>
+        </is>
+      </c>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>0</v>
-      </c>
-      <c r="L102" t="n">
-        <v>0</v>
-      </c>
-      <c r="M102" t="n">
-        <v>0</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>Open Chemistry</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4369,35 +4377,47 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>3.6 IoT Network Architectures and Variable Rate Irrigation (VRI) for Real-Time Irrigation</t>
+          <t>3.1 Irrigation management data</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>â€¢ Strategies for collecting and managing VRI data at scale</t>
+          <t>â€¢ Types of data most applicable to irrigation management and their typical sources</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({spatial data} OR {temporal data}) AND ({data integration} OR {data fusion}) AND ({irrigation management} OR {irrigation optimization}) AND ({precision agriculture} OR {smart farming}))</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
+          <t>TITLE-ABS-KEY((irrigation AND (data OR information)) AND ({types} OR {sources} OR {examples}))</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>10.1016/j.agwat.2024.108677</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>How does the number of water users in a land reform matter for water availability in agriculture?</t>
+        </is>
+      </c>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>0</v>
-      </c>
-      <c r="L103" t="n">
-        <v>0</v>
-      </c>
-      <c r="M103" t="n">
-        <v>0</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Agricultural Water Management</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4407,35 +4427,2577 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>3.6 IoT Network Architectures and Variable Rate Irrigation (VRI) for Real-Time Irrigation</t>
+          <t>3.1 Irrigation management data</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>â€¢ Strategies for collecting and managing VRI data at scale</t>
+          <t>â€¢ Types of data most applicable to irrigation management and their typical sources</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>TITLE-ABS-KEY(({variable rate irrigation} OR vri) AND ({data handling} OR {data processing} OR {data management}) AND ({large scale} OR {high resolution}))</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
+          <t>TITLE-ABS-KEY((irrigation AND (data OR information)) AND ({types} OR {sources} OR {examples}))</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>10.1016/j.agwat.2024.108715</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Exploring key factors driving farm-level seasonal irrigation water usage with Bayesian hierarchical modelling</t>
+        </is>
+      </c>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>0</v>
-      </c>
-      <c r="L104" t="n">
-        <v>0</v>
-      </c>
-      <c r="M104" t="n">
-        <v>0</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Agricultural Water Management</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>3. Data Collection to Cloud: Automation and Real-Time Processing</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>3.1 Irrigation management data</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>â€¢ Types of data most applicable to irrigation management and their typical sources</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>TITLE-ABS-KEY((irrigation AND (data OR information)) AND ({types} OR {sources} OR {examples}))</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>10.1016/j.scitotenv.2024.170057</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Cryptosporidium and agriculture: A review</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Science of the Total Environment</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>3. Data Collection to Cloud: Automation and Real-Time Processing</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>3.1 Irrigation management data</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>â€¢ Types of data most applicable to irrigation management and their typical sources</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>(irrigation PRE/3 (management OR scheduling)) AND (data PRE/3 (type OR source OR characteristic))</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>10.1002/ird.2923</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Assessing multi-sensor hourly maize evapotranspiration estimation using a one-source surface energy balance approach</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Irrigation and Drainage</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>3. Data Collection to Cloud: Automation and Real-Time Processing</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>3.1 Irrigation management data</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>â€¢ Types of data most applicable to irrigation management and their typical sources</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>(irrigation PRE/3 (management OR scheduling)) AND (data PRE/3 (type OR source OR characteristic))</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>10.1016/j.compag.2024.108688</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Compound drought and hot stresses projected to be key constraints on maize production in Northeast China under future climate</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Computers and Electronics in Agriculture</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>3. Data Collection to Cloud: Automation and Real-Time Processing</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>3.1 Irrigation management data</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>â€¢ Types of data most applicable to irrigation management and their typical sources</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>(irrigation PRE/3 (management OR scheduling)) AND (data PRE/3 (type OR source OR characteristic))</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>10.1016/j.agwat.2024.108691</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Evaluating corn production under different plant spacings through integrated modeling approach and simulating its future response under climate change scenarios</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Agricultural Water Management</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>3. Data Collection to Cloud: Automation and Real-Time Processing</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>3.1 Irrigation management data</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>â€¢ Different data types (e.g., soil moisture, canopy temperature, weather) and their collection and use</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>TITLE-ABS-KEY((irrigation PRE/3 (management OR scheduling)) AND ({soil moisture} OR {canopy temperature} OR weather) AND (sensor OR monitoring))</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>10.1016/j.agwat.2024.108758</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Towards efficient irrigation management at field scale using new technologies: A systematic literature review</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Agricultural Water Management</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>3. Data Collection to Cloud: Automation and Real-Time Processing</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>3.1 Irrigation management data</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>â€¢ Different data types (e.g., soil moisture, canopy temperature, weather) and their collection and use</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>TITLE-ABS-KEY((irrigation PRE/3 (management OR scheduling)) AND ({soil moisture} OR {canopy temperature} OR weather) AND (sensor OR monitoring))</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>10.1016/j.indcrop.2024.118278</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Soil water movement may regulate soil water consumption and improve cotton yields under different cotton cropping systems</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Industrial Crops and Products</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>3. Data Collection to Cloud: Automation and Real-Time Processing</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>3.1 Irrigation management data</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>â€¢ Different data types (e.g., soil moisture, canopy temperature, weather) and their collection and use</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>TITLE-ABS-KEY((irrigation PRE/3 (management OR scheduling)) AND ({soil moisture} OR {canopy temperature} OR weather) AND (sensor OR monitoring))</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Groundwater impacts of adding carrot to corn-peanut rotations in North Florida</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Agricultural Water Management</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>3. Data Collection to Cloud: Automation and Real-Time Processing</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>3.1 Irrigation management data</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>â€¢ Different data types (e.g., soil moisture, canopy temperature, weather) and their collection and use</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>TITLE-ABS(({irrigation scheduling} OR {irrigation control}) AND ({data acquisition} OR {data use}) AND ({soil water} OR {plant response} OR meteorology))</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>10.13031/TRANS.13922</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Theory and development of a vri decision support system: The usda-ars isscada approach</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Transactions of the ASABE</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>3. Data Collection to Cloud: Automation and Real-Time Processing</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>3.1 Irrigation management data</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>â€¢ Different data types (e.g., soil moisture, canopy temperature, weather) and their collection and use</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>TITLE-ABS(({irrigation scheduling} OR {irrigation control}) AND ({data acquisition} OR {data use}) AND ({soil water} OR {plant response} OR meteorology))</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>10.13031/TRANS.13908</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Arspivot, a sensor-based decision support software for variable-rate irrigation center pivot systems: Part B. application</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>Transactions of the ASABE</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>3. Data Collection to Cloud: Automation and Real-Time Processing</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>3.1 Irrigation management data</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>â€¢ Different data types (e.g., soil moisture, canopy temperature, weather) and their collection and use</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>TITLE-ABS(({irrigation scheduling} OR {irrigation control}) AND ({data acquisition} OR {data use}) AND ({soil water} OR {plant response} OR meteorology))</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>10.13031/TRANS.13907</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Arspivot, a sensor-based decision support software for variable-rate irrigation center pivot systems: part a. development</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>Transactions of the ASABE</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>3. Data Collection to Cloud: Automation and Real-Time Processing</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>3.1 Irrigation management data</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>â€¢ Different data types (e.g., soil moisture, canopy temperature, weather) and their collection and use</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>(irrigation PRE/3 (management OR scheduling OR control)) AND (data AND (type OR source OR measurement))</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>10.1038/s41598-024-53573-4</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Sustainable intensification of climate-resilient maize–chickpea system in semi-arid tropics through assessing factor productivity</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>Scientific Reports</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>3. Data Collection to Cloud: Automation and Real-Time Processing</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>3.1 Irrigation management data</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>â€¢ Different data types (e.g., soil moisture, canopy temperature, weather) and their collection and use</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>(irrigation PRE/3 (management OR scheduling OR control)) AND (data AND (type OR source OR measurement))</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>10.1038/s41598-024-55669-3</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Whole-genome sequencing of tetraploid potato varieties reveals different strategies for drought tolerance</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Scientific Reports</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>3. Data Collection to Cloud: Automation and Real-Time Processing</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>3.1 Irrigation management data</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>â€¢ Different data types (e.g., soil moisture, canopy temperature, weather) and their collection and use</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>(irrigation PRE/3 (management OR scheduling OR control)) AND (data AND (type OR source OR measurement))</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>10.1186/s12866-024-03203-w</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Exploring Aeromonas dhakensis in Aldabra giant tortoises: a debut report and genetic characterization</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>BMC Microbiology</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>3. Data Collection to Cloud: Automation and Real-Time Processing</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>3.1 Irrigation management data</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>â€¢ Considerations: volume, frequency, format, and source of the data</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>TITLE-ABS-KEY((irrigation AND data) AND (volume OR frequency OR format OR source))</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>10.1016/j.agwat.2024.108756</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Influence of soil hydraulic parameters on bulb size for surface and buried emitters</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>Agricultural Water Management</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>3. Data Collection to Cloud: Automation and Real-Time Processing</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>3.1 Irrigation management data</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>â€¢ Considerations: volume, frequency, format, and source of the data</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>TITLE-ABS-KEY((irrigation AND data) AND (volume OR frequency OR format OR source))</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>10.1016/j.agwat.2024.108757</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Irrigation water economic value and productivity: An econometric estimation for maize grain production in Italy</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>Agricultural Water Management</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>3. Data Collection to Cloud: Automation and Real-Time Processing</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>3.1 Irrigation management data</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>â€¢ Considerations: volume, frequency, format, and source of the data</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>TITLE-ABS-KEY((irrigation AND data) AND (volume OR frequency OR format OR source))</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>10.1061/JWRMD5.WRENG-6236</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Geographic information system mapping tool for rainwater harvesting in the united states</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>Journal of Water Resources Planning and Management</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>3. Data Collection to Cloud: Automation and Real-Time Processing</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>3.1 Irrigation management data</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>â€¢ Different data types (e.g., soil moisture, canopy temperature, weather) and their collection and use</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>TITLE-ABS-KEY((irrigation AND (data OR information OR input)) AND (collection OR gathering OR acquisition))</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>10.1016/j.agwat.2024.108763</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>High-resolution satellite imagery to assess orchard characteristics impacting water use</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>Agricultural Water Management</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>3. Data Collection to Cloud: Automation and Real-Time Processing</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>3.1 Irrigation management data</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>â€¢ Different data types (e.g., soil moisture, canopy temperature, weather) and their collection and use</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>TITLE-ABS-KEY((irrigation AND (data OR information OR input)) AND (collection OR gathering OR acquisition))</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>10.1016/j.indcrop.2024.118350</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Design of an IOT-based saffron crop irrigation system</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>Industrial Crops and Products</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>3. Data Collection to Cloud: Automation and Real-Time Processing</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>3.1 Irrigation management data</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>â€¢ Different data types (e.g., soil moisture, canopy temperature, weather) and their collection and use</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>TITLE-ABS-KEY((irrigation AND (data OR information OR input)) AND (collection OR gathering OR acquisition))</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>10.56042/jsir.v83i3.2471</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Development and Evaluation of Smart Drip Irrigation System for Egg Plant using Internet of Things</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Journal of Scientific and Industrial Research</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>3. Data Collection to Cloud: Automation and Real-Time Processing</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>3.1 Irrigation management data</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>â€¢ Considerations: volume, frequency, format, and source of the data</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>TITLE-ABS-KEY((irrigation PRE/3 (management OR scheduling OR control)) AND (data PRE/3 (quality OR characteristic OR property)))</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Assessing multi-sensor hourly maize evapotranspiration estimation using a one-source surface energy balance approach</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Irrigation and Drainage</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>3. Data Collection to Cloud: Automation and Real-Time Processing</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>3.1 Irrigation management data</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>â€¢ Considerations: volume, frequency, format, and source of the data</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>TITLE-ABS-KEY((irrigation PRE/3 (management OR scheduling OR control)) AND (data PRE/3 (quality OR characteristic OR property)))</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>10.1002/ird.2923</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>Irrigation and Drainage</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>3. Data Collection to Cloud: Automation and Real-Time Processing</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>3.1 Irrigation management data</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>â€¢ Considerations: volume, frequency, format, and source of the data</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>TITLE-ABS-KEY((irrigation PRE/3 (management OR scheduling OR control)) AND (data PRE/3 (quality OR characteristic OR property)))</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Enhancing Mediterranean Agriculture: Towards a Sensor Based Decision Support Tool for Efficient Irrigation Management in Smallholder Orchards</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>2023 IEEE International Workshop on Metrology for Agriculture and Forestry, MetroAgriFor 2023 - Proceedings</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>3. Data Collection to Cloud: Automation and Real-Time Processing</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>3.2 Edge Computing and Fog Computing</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>â€¢ The potential of edge computing and fog computing in real-time irrigation management</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>TITLE-ABS-KEY(({edge computing} OR {fog computing}) AND ({real-time} OR {precision} OR smart) AND (irrigation))</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>10.1016/j.compag.2023.107650</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Developing an image processing pipeline to improve the position accuracy of single UAV images</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>Computers and Electronics in Agriculture</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>3. Data Collection to Cloud: Automation and Real-Time Processing</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>3.2 Edge Computing and Fog Computing</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>â€¢ The potential of edge computing and fog computing in real-time irrigation management</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>TITLE-ABS-KEY(({edge computing} OR {fog computing}) AND ({real-time} OR {precision} OR smart) AND (irrigation))</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>10.1016/j.iot.2024.101078</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Federated learning for performance behavior detection in a fog-IoT system</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>Internet of Things (Netherlands)</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>3. Data Collection to Cloud: Automation and Real-Time Processing</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>3.2 Edge Computing and Fog Computing</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>â€¢ The potential of edge computing and fog computing in real-time irrigation management</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>TITLE-ABS-KEY(({edge computing} OR {fog computing}) AND ({real-time} OR {precision} OR smart) AND (irrigation))</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>10.1109/ICMEAS58693.2023.10429854</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>IoT-Aided Intelligent Irrigation System Using Edge Computing</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>2023 2nd International Conference on Multidisciplinary Engineering and Applied Science, ICMEAS 2023</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>3. Data Collection to Cloud: Automation and Real-Time Processing</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>3.2 Edge Computing and Fog Computing</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>â€¢ The potential of edge computing and fog computing in real-time irrigation management</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>TITLE-ABS-KEY((edge OR fog OR {distributed computing}) AND (irrigation PRE/3 (management OR control OR automation)))</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>10.3389/fsoil.2023.1267685</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Extended soil surface drying triggered by subsurface drip irrigation decouples carbon and nitrogen cycles and alters microbiome composition</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>Frontiers in Soil Science</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>3. Data Collection to Cloud: Automation and Real-Time Processing</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>3.2 Edge Computing and Fog Computing</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>â€¢ The potential of edge computing and fog computing in real-time irrigation management</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>TITLE-ABS-KEY((edge OR fog OR {distributed computing}) AND (irrigation PRE/3 (management OR control OR automation)))</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>10.1109/NILES59815.2023.10296736</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Smart irrigation system using IoT and machine learning methods</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>5th Novel Intelligent and Leading Emerging Sciences Conference, NILES 2023 - Proceedings</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>3. Data Collection to Cloud: Automation and Real-Time Processing</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>3.2 Edge Computing and Fog Computing</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>â€¢ The potential of edge computing and fog computing in real-time irrigation management</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>TITLE-ABS-KEY((edge OR fog OR {distributed computing}) AND (irrigation PRE/3 (management OR control OR automation)))</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>10.4108/eetiot.4604</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Enhancing Crop Growth Efficiency through IoT-enabled Smart Farming System</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>EAI Endorsed Transactions on Internet of Things</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>3. Data Collection to Cloud: Automation and Real-Time Processing</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>3.2 Edge Computing and Fog Computing</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>â€¢ Benefits of edge computing in reducing latency, enabling real-time decision-making, and reducing reliance on cloud connectivity</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>TITLE-ABS-KEY(({edge computing} OR {fog computing}) AND ({low latency} OR {real-time} OR {cloud independence}) AND (irrigation))</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>10.1002/spe.2847</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Service offloading oriented edge server placement in smart farming</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>Software - Practice and Experience</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>3. Data Collection to Cloud: Automation and Real-Time Processing</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>3.2 Edge Computing and Fog Computing</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>â€¢ Benefits of edge computing in reducing latency, enabling real-time decision-making, and reducing reliance on cloud connectivity</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>TITLE-ABS-KEY(({edge computing} OR {fog computing}) AND ({low latency} OR {real-time} OR {cloud independence}) AND (irrigation))</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>10.1016/j.compag.2023.108420</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>AICropCAM: Deploying classification, segmentation, detection, and counting deep-learning models for crop monitoring on the edge</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>Computers and Electronics in Agriculture</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>3. Data Collection to Cloud: Automation and Real-Time Processing</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>3.2 Edge Computing and Fog Computing</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>â€¢ Benefits of edge computing in reducing latency, enabling real-time decision-making, and reducing reliance on cloud connectivity</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>TITLE-ABS-KEY(({edge computing} OR {fog computing}) AND ({low latency} OR {real-time} OR {cloud independence}) AND (irrigation))</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>10.1016/j.compag.2022.107498</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>CanopyCAM – an edge-computing sensing unit for continuous measurement of canopy cover percentage of dry edible beans</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>Computers and Electronics in Agriculture</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>3. Data Collection to Cloud: Automation and Real-Time Processing</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>3.2 Edge Computing and Fog Computing</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>â€¢ Benefits of edge computing in reducing latency, enabling real-time decision-making, and reducing reliance on cloud connectivity</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>TITLE-ABS-KEY((edge OR {distributed computing}) AND ({real-time} OR low-latency OR {local processing}) AND (irrigation PRE/3 (management OR control OR automation)))</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>10.3390/w15091739</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Developing an Open-Source IoT Platform for Optimal Irrigation Scheduling and Decision-Making: Implementation at Olive Grove Parcels</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>Water (Switzerland)</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>3. Data Collection to Cloud: Automation and Real-Time Processing</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>3.2 Edge Computing and Fog Computing</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>â€¢ Benefits of edge computing in reducing latency, enabling real-time decision-making, and reducing reliance on cloud connectivity</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>TITLE-ABS-KEY((edge OR {distributed computing}) AND ({real-time} OR low-latency OR {local processing}) AND (irrigation PRE/3 (management OR control OR automation)))</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>10.3920/978-90-8686-888-9_60</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Estimating cotton water requirements using sentinel-2: Model development and validation</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>Precision Agriculture 2019 - Papers Presented at the 12th European Conference on Precision Agriculture, ECPA 2019</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>3. Data Collection to Cloud: Automation and Real-Time Processing</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>3.2 Edge Computing and Fog Computing</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>â€¢ Benefits of edge computing in reducing latency, enabling real-time decision-making, and reducing reliance on cloud connectivity</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>TITLE-ABS-KEY((edge OR {distributed computing}) AND ({real-time} OR low-latency OR {local processing}) AND (irrigation PRE/3 (management OR control OR automation)))</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>10.1016/j.agwat.2018.05.017</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Estimating cotton water consumption using a time series of Sentinel-2 imagery</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>Agricultural Water Management</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>3. Data Collection to Cloud: Automation and Real-Time Processing</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>3.3 Automation of Data Collection</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Automation of Data Collection</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>TITLE-ABS-KEY(({data collection} OR sensing OR monitoring) AND (automat* OR {autonomous system}) AND ({precision agriculture} OR {smart farming}))</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>IoT-Based Smart Agriculture for Onion Plant Disease Management: A Comprehensive Approach</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>International Journal of Intelligent Systems and Applications in Engineering</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>3. Data Collection to Cloud: Automation and Real-Time Processing</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>3.3 Automation of Data Collection</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Automation of Data Collection</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>TITLE-ABS-KEY(({data collection} OR sensing OR monitoring) AND (automat* OR {autonomous system}) AND ({precision agriculture} OR {smart farming}))</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>10.1007/s11042-024-18589-y</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Benchmarking of computer vision methods for energy-efficient high-accuracy olive fly detection on edge devices</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>Multimedia Tools and Applications</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>3. Data Collection to Cloud: Automation and Real-Time Processing</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>3.3 Automation of Data Collection</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Automation of Data Collection</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>TITLE-ABS-KEY(({data collection} OR sensing OR monitoring) AND (automat* OR {autonomous system}) AND ({precision agriculture} OR {smart farming}))</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>10.4018/979-8-3693-0639-0.ch013</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>IoT-integrated machine learning-based automated precision agriculture-indoor farming techniques</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>Using Traditional Design Methods to Enhance AI-Driven Decision Making</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>3. Data Collection to Cloud: Automation and Real-Time Processing</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>3.3 Automation of Data Collection</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Automation of Data Collection</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>TITLE-ABS-KEY(((data OR information) AND collection) AND (automat* OR {autonomous system} OR {intelligent system}) AND (irrigation OR {precision agriculture}))</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>10.48077/scihor1.2024.127</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Automated remote sensing system for crops monitoring and irrigation management, based on leaf color change and piecewise linear regression models for soil moisture content predicting</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>Scientific Horizons</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>3. Data Collection to Cloud: Automation and Real-Time Processing</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>3.3 Automation of Data Collection</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Automation of Data Collection</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>TITLE-ABS-KEY(((data OR information) AND collection) AND (automat* OR {autonomous system} OR {intelligent system}) AND (irrigation OR {precision agriculture}))</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>10.1007/978-3-031-47715-7_43</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>From Industry 4.0 Toward Agriculture 4.0</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>Lecture Notes in Networks and Systems</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>3. Data Collection to Cloud: Automation and Real-Time Processing</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>3.3 Automation of Data Collection</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Automation of Data Collection</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>TITLE-ABS-KEY(((data OR information) AND collection) AND (automat* OR {autonomous system} OR {intelligent system}) AND (irrigation OR {precision agriculture}))</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>10.56042/jsir.v83i3.2471</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Development and Evaluation of Smart Drip Irrigation System for Egg Plant using Internet of Things</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>Journal of Scientific and Industrial Research</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>3. Data Collection to Cloud: Automation and Real-Time Processing</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>3.5 Challenges and Solutions in Real-Time Data Transmission</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>â€¢ Obstacles in transmitting data in real-time</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>TITLE-ABS-KEY(({data transmission} OR {data communication}) AND (challenge OR obstacle OR issue) AND ({real-time} OR {low latency}) AND ({irrigation system} OR {precision agriculture}))</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>10.1109/ICSCAN58655.2023.10395491</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Enhancing Irrigation Efficiency with AI-Based Instinctive Irrigation System (IIS) in Wireless Sensor Networks</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>2023 International Conference on System, Computation, Automation and Networking, ICSCAN 2023</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>3. Data Collection to Cloud: Automation and Real-Time Processing</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>3.5 Challenges and Solutions in Real-Time Data Transmission</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>â€¢ Obstacles in transmitting data in real-time</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>TITLE-ABS-KEY(({data transmission} OR {data communication}) AND (challenge OR obstacle OR issue) AND ({real-time} OR {low latency}) AND ({irrigation system} OR {precision agriculture}))</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>10.22146/IJG.77862</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Two Threshold Smart Irrigation System for Increasing Crop Yield</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>Indonesian Journal of Geography</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>3. Data Collection to Cloud: Automation and Real-Time Processing</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>3.5 Challenges and Solutions in Real-Time Data Transmission</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>â€¢ Obstacles in transmitting data in real-time</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>TITLE-ABS-KEY((transmission OR communication) AND (issue OR problem OR difficulty) AND ({real-time} OR {instant} OR {low latency}) AND (irrigation AND (data OR information)))</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>10.1016/j.agwat.2022.107686</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>An ICT-based decision support system for precision irrigation management in outdoor orange and greenhouse tomato crops</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>Agricultural Water Management</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>3. Data Collection to Cloud: Automation and Real-Time Processing</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>3.5 Challenges and Solutions in Real-Time Data Transmission</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>â€¢ Obstacles in transmitting data in real-time</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>TITLE-ABS-KEY((transmission OR communication) AND (issue OR problem OR difficulty) AND ({real-time} OR {instant} OR {low latency}) AND (irrigation AND (data OR information)))</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>10.13733/j.jcam.issn.2095-5553.2022.11.028</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Research on precision irrigation system of blueberry orchard based on LoRa and SVM-Markov</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>Journal of Chinese Agricultural Mechanization</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>3. Data Collection to Cloud: Automation and Real-Time Processing</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>3.5 Challenges and Solutions in Real-Time Data Transmission</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>â€¢ Obstacles in transmitting data in real-time</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>TITLE-ABS-KEY((transmission OR communication) AND (issue OR problem OR difficulty) AND ({real-time} OR {instant} OR {low latency}) AND (irrigation AND (data OR information)))</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>10.1109/IEMTRONICS55184.2022.9795747</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Smart Irrigation Systems: Soil Monitoring and Disease Detection for Precision Agriculture</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>2022 IEEE International IOT, Electronics and Mechatronics Conference, IEMTRONICS 2022</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>3. Data Collection to Cloud: Automation and Real-Time Processing</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>3.6 IoT Network Architectures and Variable Rate Irrigation (VRI) for Real-Time Irrigation</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>â€¢ Strategies for collecting and managing VRI data at scale</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>TITLE-ABS-KEY(({precision irrigation} OR {site-specific irrigation} OR {variable rate irrigation}) AND ({data collection} OR {data management}) AND (scale OR scalability OR {large scale}))</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>10.1016/j.agwat.2020.106307</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Economic comparisons of variable rate irrigation and fertigation with fixed (uniform) rate irrigation and fertigation and pre-plant fertilizer management for maize in three soils</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>Agricultural Water Management</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>3. Data Collection to Cloud: Automation and Real-Time Processing</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>3.6 IoT Network Architectures and Variable Rate Irrigation (VRI) for Real-Time Irrigation</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>â€¢ Strategies for collecting and managing VRI data at scale</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>TITLE-ABS-KEY(({precision irrigation} OR {site-specific irrigation} OR {variable rate irrigation}) AND ({data collection} OR {data management}) AND (scale OR scalability OR {large scale}))</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>10.11975/j.issn.1002-6819.2020.10.008</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Soil water content inversion model in field maize root zone based on UAV multispectral remote sensing</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>Nongye Gongcheng Xuebao/Transactions of the Chinese Society of Agricultural Engineering</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>3. Data Collection to Cloud: Automation and Real-Time Processing</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>3.6 IoT Network Architectures and Variable Rate Irrigation (VRI) for Real-Time Irrigation</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>â€¢ Strategies for collecting and managing VRI data at scale</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>TITLE-ABS-KEY(({precision irrigation} OR {site-specific irrigation} OR {variable rate irrigation}) AND ({data collection} OR {data management}) AND (scale OR scalability OR {large scale}))</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>10.3390/agronomy13041125</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Irrigation Zone Delineation and Management with a Field-Scale Variable Rate Irrigation System in Winter Wheat</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>Agronomy</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>3. Data Collection to Cloud: Automation and Real-Time Processing</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>3.6 IoT Network Architectures and Variable Rate Irrigation (VRI) for Real-Time Irrigation</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>â€¢ Autonomous planning and scheduling of VRI using machine learning and optimization techniques</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>TITLE-ABS-KEY(({variable rate irrigation} OR vri OR {precision irrigation}) AND ({autonomous} OR {intelligent system} OR optimization) AND ({irrigation scheduling} OR {irrigation planning}))</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>10.3390/agronomy13082113</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>An Overview of Smart Irrigation Management for Improving Water Productivity under Climate Change in Drylands</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>Agronomy</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>3. Data Collection to Cloud: Automation and Real-Time Processing</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>3.6 IoT Network Architectures and Variable Rate Irrigation (VRI) for Real-Time Irrigation</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>â€¢ Autonomous planning and scheduling of VRI using machine learning and optimization techniques</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>TITLE-ABS-KEY(({variable rate irrigation} OR vri OR {precision irrigation}) AND ({autonomous} OR {intelligent system} OR optimization) AND ({irrigation scheduling} OR {irrigation planning}))</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>10.1016/j.compag.2023.108159</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Modeling of soil moisture and water fluxes in a maize field for the optimization of irrigation</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>Computers and Electronics in Agriculture</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>3. Data Collection to Cloud: Automation and Real-Time Processing</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>3.6 IoT Network Architectures and Variable Rate Irrigation (VRI) for Real-Time Irrigation</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>â€¢ Autonomous planning and scheduling of VRI using machine learning and optimization techniques</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>TITLE-ABS-KEY(({variable rate irrigation} OR vri OR {precision irrigation}) AND ({autonomous} OR {intelligent system} OR optimization) AND ({irrigation scheduling} OR {irrigation planning}))</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>10.3390/mi14020263</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Internet of Things (IoT) for Soil Moisture Tensiometer Automation</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>Micromachines</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
